--- a/_docs/DB.xlsx
+++ b/_docs/DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="144" windowWidth="22980" windowHeight="8760" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="144" windowWidth="22980" windowHeight="8760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="mpi" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="kosgu" sheetId="5" r:id="rId4"/>
     <sheet name="okpd" sheetId="6" r:id="rId5"/>
     <sheet name="obas" sheetId="3" r:id="rId6"/>
+    <sheet name="contract" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -367,7 +368,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* &quot;-&quot;?\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="165" formatCode="0_ ;\-0\ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -492,7 +493,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2114,7 +2115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G2:G18"/>
     </sheetView>
   </sheetViews>
@@ -2787,4 +2788,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>